--- a/dataset_v1/task_sheet_answers/Invoices/16_Invoices/16_Invoices_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/Invoices/16_Invoices/16_Invoices_gt1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -20,11 +20,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0,"/>
-    <numFmt numFmtId="167" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="#\ ???/???"/>
+    <numFmt formatCode="\$#,##0.00;\-\$#,##0.00" numFmtId="164"/>
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="165"/>
+    <numFmt formatCode="&quot;$&quot;#,##0," numFmtId="166"/>
+    <numFmt formatCode="d\-mmm\-yyyy" numFmtId="167"/>
+    <numFmt formatCode="#\ ???/???" numFmtId="168"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -176,75 +176,75 @@
     </border>
   </borders>
   <cellStyleXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="166"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="2" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="8" numFmtId="168">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="1" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="1" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="blue" xfId="2"/>
     <cellStyle name="bluecenteraccrossselection" xfId="3"/>
@@ -271,7 +271,7 @@
     <cellStyle name="Normal 2 3" xfId="24"/>
     <cellStyle name="Percent 2 2" xfId="25"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -344,35 +344,35 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="hongxin li" refreshedDate="45053.46859814815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" r:id="rId1">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="8" minRefreshableVersion="3" recordCount="18" refreshedBy="hongxin li" refreshedDate="45053.46859814815" refreshedVersion="8" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G19" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
-    <cacheField name="Invoice No." uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="10500" maxValue="10505"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Invoice No." numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="10505" minValue="10500"/>
     </cacheField>
-    <cacheField name="Date" uniqueList="1" numFmtId="14" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="3" containsDate="1" containsNonDate="0" containsSemiMixedTypes="0" containsString="0" minDate="2011-05-25T00:00:00" maxDate="2011-05-29T00:00:00">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Date" numFmtId="14" sqlType="0" uniqueList="1">
+      <sharedItems containsDate="1" containsNonDate="0" containsSemiMixedTypes="0" containsString="0" count="3" maxDate="2011-05-29T00:00:00" minDate="2011-05-25T00:00:00">
         <d v="2011-05-25T00:00:00"/>
         <d v="2011-05-27T00:00:00"/>
         <d v="2011-05-28T00:00:00"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sales Rep" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Sales Rep" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="0"/>
     </cacheField>
-    <cacheField name="Product" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Product" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="0"/>
     </cacheField>
-    <cacheField name="Price" uniqueList="1" numFmtId="180" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="22" maxValue="32"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Price" numFmtId="180" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="32" minValue="22"/>
     </cacheField>
-    <cacheField name="Units" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="4" maxValue="25"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Units" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="25" minValue="4"/>
     </cacheField>
-    <cacheField name="Sales" uniqueList="1" numFmtId="180" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="128" maxValue="750"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Sales" numFmtId="180" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="750" minValue="128"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -546,48 +546,48 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="3" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="8" dataCaption="Values" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable1" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="8" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="A1:B5"/>
   <pivotFields count="7">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" numFmtId="14" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" numFmtId="14" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
       <items count="4">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="default" sd="1"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="default"/>
       </items>
     </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" numFmtId="180" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField dataField="1" showDropDowns="1" compact="1" numFmtId="180" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" numFmtId="180" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" numFmtId="180" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
   <rowItems count="4">
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="0"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="1"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="2"/>
     </i>
-    <i t="grand" r="0" i="0">
+    <i i="0" r="0" t="grand">
       <x v="0"/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i i="0" r="0" t="data"/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Sales" fld="6" subtotal="average" showDataAs="normal" baseField="1" baseItem="0"/>
+    <dataField baseField="1" baseItem="0" fld="6" name="Average of Sales" showDataAs="normal" subtotal="average"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
 </pivotTableDefinition>
 </file>
 
@@ -900,8 +900,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="14.33203125" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="14.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="17.44140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -951,7 +951,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -969,9 +969,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="11.88671875" customWidth="1" style="6" min="1" max="1"/>
-    <col width="16.21875" customWidth="1" style="6" min="2" max="2"/>
-    <col width="10.33203125" customWidth="1" style="6" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" style="6" width="11.88671875"/>
+    <col customWidth="1" max="2" min="2" style="6" width="16.21875"/>
+    <col customWidth="1" max="3" min="3" style="6" width="10.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1498,6 +1498,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>